--- a/FuzzyMatch/matched_output.xlsx
+++ b/FuzzyMatch/matched_output.xlsx
@@ -3135,7 +3135,11 @@
           <t>الحميره</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Homeira</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -4198,7 +4202,11 @@
           <t>الدبابيه</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Dabbabiyé Charkié</t>
+        </is>
+      </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -5140,7 +5148,11 @@
           <t>الدوره</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Daoura</t>
+        </is>
+      </c>
       <c r="C190" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -6362,7 +6374,11 @@
           <t>السنديانة</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Sindianet Zeidan</t>
+        </is>
+      </c>
       <c r="C240" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -6696,7 +6712,11 @@
           <t>السويسه</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Al-Souaissé</t>
+        </is>
+      </c>
       <c r="C254" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -6842,7 +6862,11 @@
           <t>الشقدوف</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Chakdouf</t>
+        </is>
+      </c>
       <c r="C260" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -7159,7 +7183,11 @@
           <t>الشيخ زناد</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Cheikh Zennad Tal Bibé</t>
+        </is>
+      </c>
       <c r="C273" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -7401,7 +7429,11 @@
           <t>الشيخ طابا</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Cheikh Taba Montagne</t>
+        </is>
+      </c>
       <c r="C283" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -8781,7 +8813,11 @@
           <t>الخريبه حي الجامع</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Khreibé</t>
+        </is>
+      </c>
       <c r="C339" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -10762,7 +10798,11 @@
           <t>الفتاحات وحربونا</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr"/>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>El-Ftahat</t>
+        </is>
+      </c>
       <c r="C420" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -10808,7 +10848,11 @@
           <t>بشتودار</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr"/>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Bechtoudar-Aoura</t>
+        </is>
+      </c>
       <c r="C422" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -10879,7 +10923,11 @@
           <t>تنورين الفوقا</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr"/>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Tannourine Foka</t>
+        </is>
+      </c>
       <c r="C425" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -10946,7 +10994,11 @@
           <t>راشكيده</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Rachkida</t>
+        </is>
+      </c>
       <c r="C428" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -10967,7 +11019,11 @@
           <t>صغار</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Sghar et Wata Sfarta</t>
+        </is>
+      </c>
       <c r="C429" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -10988,7 +11044,11 @@
           <t>صورات</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr"/>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Sourate</t>
+        </is>
+      </c>
       <c r="C430" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -11009,7 +11069,11 @@
           <t>ضهر ابو ياغي</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr"/>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Al-Boukaïa et Dahr Abi Yaghi</t>
+        </is>
+      </c>
       <c r="C431" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -11339,7 +11403,11 @@
           <t>مراح شديد ودير شواح</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr"/>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Mrah Chdid</t>
+        </is>
+      </c>
       <c r="C445" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -11360,7 +11428,11 @@
           <t>مسرح والبقيعة</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr"/>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Masreh</t>
+        </is>
+      </c>
       <c r="C446" t="inlineStr">
         <is>
           <t>البترون</t>
@@ -11406,7 +11478,11 @@
           <t>البطال</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Anbal</t>
+        </is>
+      </c>
       <c r="C448" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -11427,11 +11503,7 @@
           <t>الجاهلية</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>El-Jahliyeh</t>
-        </is>
-      </c>
+      <c r="B449" t="inlineStr"/>
       <c r="C449" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -11849,7 +11921,11 @@
           <t>المطله</t>
         </is>
       </c>
-      <c r="B467" t="inlineStr"/>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Mtoullé Bzina</t>
+        </is>
+      </c>
       <c r="C467" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12012,7 +12088,11 @@
           <t>بريح</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr"/>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Brih et Mteilé</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12058,7 +12138,11 @@
           <t>بعقلين التحتا</t>
         </is>
       </c>
-      <c r="B476" t="inlineStr"/>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Baakline</t>
+        </is>
+      </c>
       <c r="C476" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12238,7 +12322,11 @@
           <t>جدرا - وادي الزينة</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Jadra</t>
+        </is>
+      </c>
       <c r="C484" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12393,7 +12481,11 @@
           <t>شحيم حي البدوي</t>
         </is>
       </c>
-      <c r="B491" t="inlineStr"/>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Chehime</t>
+        </is>
+      </c>
       <c r="C491" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12657,7 +12749,11 @@
           <t>عين وزين</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr"/>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Aïn Ouzaï</t>
+        </is>
+      </c>
       <c r="C503" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12678,7 +12774,11 @@
           <t>كفر قطره</t>
         </is>
       </c>
-      <c r="B504" t="inlineStr"/>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Kfar Katra</t>
+        </is>
+      </c>
       <c r="C504" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12770,7 +12870,11 @@
           <t>مجدل المعوش</t>
         </is>
       </c>
-      <c r="B508" t="inlineStr"/>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Majdel Meouche</t>
+        </is>
+      </c>
       <c r="C508" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -12837,7 +12941,11 @@
           <t>مزموره</t>
         </is>
       </c>
-      <c r="B511" t="inlineStr"/>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Mazmoura</t>
+        </is>
+      </c>
       <c r="C511" t="inlineStr">
         <is>
           <t>الشوف</t>
@@ -14396,7 +14504,11 @@
           <t>ابو ميزان</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr"/>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Abou-Mizane</t>
+        </is>
+      </c>
       <c r="C578" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14417,7 +14529,11 @@
           <t>البوشريه</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr"/>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Baouchariat</t>
+        </is>
+      </c>
       <c r="C579" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14438,7 +14554,11 @@
           <t>الجديدة</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr"/>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Jodaidat</t>
+        </is>
+      </c>
       <c r="C580" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14530,7 +14650,11 @@
           <t>الدكوانه</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr"/>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Dekouanet</t>
+        </is>
+      </c>
       <c r="C584" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14551,7 +14675,11 @@
           <t>الدوار</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr"/>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Douar</t>
+        </is>
+      </c>
       <c r="C585" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14618,7 +14746,11 @@
           <t>الشوير</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr"/>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Choueir</t>
+        </is>
+      </c>
       <c r="C588" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14664,7 +14796,11 @@
           <t>العيرون</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr"/>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Aïroune</t>
+        </is>
+      </c>
       <c r="C590" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14685,7 +14821,11 @@
           <t>الغابه</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr"/>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Maska et El-Ghabeh</t>
+        </is>
+      </c>
       <c r="C591" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14731,7 +14871,11 @@
           <t>القعقور</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr"/>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Kaakour</t>
+        </is>
+      </c>
       <c r="C593" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14961,7 +15105,11 @@
           <t>بعبدات</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr"/>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Baabdat et Sfaïlé</t>
+        </is>
+      </c>
       <c r="C603" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -14982,7 +15130,11 @@
           <t>بيت الشعار</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr"/>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Mazraet Beit Chaar</t>
+        </is>
+      </c>
       <c r="C604" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15028,7 +15180,11 @@
           <t>بيت شباب تحتاني</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr"/>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Beit Chebab</t>
+        </is>
+      </c>
       <c r="C606" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15120,7 +15276,11 @@
           <t>زوق الخراب ومار يوسف</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Zouk-Khrab</t>
+        </is>
+      </c>
       <c r="C610" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15141,7 +15301,11 @@
           <t>ساقية المسك</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr"/>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Sakiet-El-Misk et Bhorsaf</t>
+        </is>
+      </c>
       <c r="C611" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15183,7 +15347,11 @@
           <t>سن الفيل حي البلده</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr"/>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Senn el Fil</t>
+        </is>
+      </c>
       <c r="C613" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15317,7 +15485,11 @@
           <t>عوكر</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr"/>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Mazraet Deir Aoukar</t>
+        </is>
+      </c>
       <c r="C619" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15584,7 +15756,11 @@
           <t>عين القبو ودير مار سمعان</t>
         </is>
       </c>
-      <c r="B630" t="inlineStr"/>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Aïn El-Kabou</t>
+        </is>
+      </c>
       <c r="C630" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15726,7 +15902,11 @@
           <t>عينطوره</t>
         </is>
       </c>
-      <c r="B636" t="inlineStr"/>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Antoura</t>
+        </is>
+      </c>
       <c r="C636" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -15939,7 +16119,11 @@
           <t>مزهر ومجدوب</t>
         </is>
       </c>
-      <c r="B645" t="inlineStr"/>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Mezher</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr">
         <is>
           <t>المتن</t>
@@ -16002,7 +16186,11 @@
           <t>النبي يوشع</t>
         </is>
       </c>
-      <c r="B648" t="inlineStr"/>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Nabi Youcheaa</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr">
         <is>
           <t>المنية</t>
@@ -16023,7 +16211,11 @@
           <t>برج اليهودية</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr"/>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Borge-El-Yahoudié</t>
+        </is>
+      </c>
       <c r="C649" t="inlineStr">
         <is>
           <t>المنية</t>
@@ -16386,7 +16578,11 @@
           <t>بريقع</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr"/>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Braikeh</t>
+        </is>
+      </c>
       <c r="C664" t="inlineStr">
         <is>
           <t>النبطية</t>
@@ -16503,7 +16699,11 @@
           <t>زوطر الشرقية</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr"/>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Zaoutar El-Charkiyé</t>
+        </is>
+      </c>
       <c r="C669" t="inlineStr">
         <is>
           <t>النبطية</t>
@@ -16549,7 +16749,11 @@
           <t>سيني</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr"/>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Mazraet Sinai</t>
+        </is>
+      </c>
       <c r="C671" t="inlineStr">
         <is>
           <t>النبطية</t>
@@ -16758,7 +16962,11 @@
           <t>بزعون</t>
         </is>
       </c>
-      <c r="B680" t="inlineStr"/>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Bazoune</t>
+        </is>
+      </c>
       <c r="C680" t="inlineStr">
         <is>
           <t>بشري</t>
@@ -16779,7 +16987,11 @@
           <t>بشري حي السيدة</t>
         </is>
       </c>
-      <c r="B681" t="inlineStr"/>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Bcharré</t>
+        </is>
+      </c>
       <c r="C681" t="inlineStr">
         <is>
           <t>بشري</t>
@@ -16934,7 +17146,11 @@
           <t>بقاعكفرا</t>
         </is>
       </c>
-      <c r="B688" t="inlineStr"/>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Bikaa kafra</t>
+        </is>
+      </c>
       <c r="C688" t="inlineStr">
         <is>
           <t>بشري</t>
@@ -17222,7 +17438,11 @@
           <t>الشياح بئر العبد</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr"/>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Chiah</t>
+        </is>
+      </c>
       <c r="C700" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -17490,7 +17710,11 @@
           <t>المرداشة</t>
         </is>
       </c>
-      <c r="B712" t="inlineStr"/>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Mardachat</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -17699,7 +17923,11 @@
           <t>برج البراجنة حي السنديان</t>
         </is>
       </c>
-      <c r="B721" t="inlineStr"/>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Borge el Baragenat</t>
+        </is>
+      </c>
       <c r="C721" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -17812,7 +18040,11 @@
           <t>بطشيه</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr"/>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Boutchay</t>
+        </is>
+      </c>
       <c r="C726" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -17833,7 +18065,11 @@
           <t>بعلشميه</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr"/>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Baalchemay</t>
+        </is>
+      </c>
       <c r="C727" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -18167,7 +18403,11 @@
           <t>حارة حريك حي الرويس</t>
         </is>
       </c>
-      <c r="B741" t="inlineStr"/>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Haret Horaïk</t>
+        </is>
+      </c>
       <c r="C741" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -18476,7 +18716,11 @@
           <t>زندوقه</t>
         </is>
       </c>
-      <c r="B754" t="inlineStr"/>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Zandouka</t>
+        </is>
+      </c>
       <c r="C754" t="inlineStr">
         <is>
           <t>بعبدا</t>
@@ -19361,7 +19605,11 @@
           <t>غندورية</t>
         </is>
       </c>
-      <c r="B791" t="inlineStr"/>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Ghandouriyé</t>
+        </is>
+      </c>
       <c r="C791" t="inlineStr">
         <is>
           <t>بنت جبيل</t>
@@ -19382,7 +19630,11 @@
           <t>قوزح</t>
         </is>
       </c>
-      <c r="B792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>El-Kouzah</t>
+        </is>
+      </c>
       <c r="C792" t="inlineStr">
         <is>
           <t>بنت جبيل</t>
@@ -19553,7 +19805,11 @@
           <t>الشربين</t>
         </is>
       </c>
-      <c r="B799" t="inlineStr"/>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Hermel Charbine</t>
+        </is>
+      </c>
       <c r="C799" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -19749,7 +20005,11 @@
           <t>ادونيس</t>
         </is>
       </c>
-      <c r="B807" t="inlineStr"/>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Adonis et Sannour</t>
+        </is>
+      </c>
       <c r="C807" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -19921,7 +20181,11 @@
           <t>الغابات</t>
         </is>
       </c>
-      <c r="B815" t="inlineStr"/>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Ghabate</t>
+        </is>
+      </c>
       <c r="C815" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -19988,7 +20252,11 @@
           <t>الكفر</t>
         </is>
       </c>
-      <c r="B818" t="inlineStr"/>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>El-Kafr et El-Harf</t>
+        </is>
+      </c>
       <c r="C818" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20168,7 +20436,11 @@
           <t>جنه ومار سركيس</t>
         </is>
       </c>
-      <c r="B826" t="inlineStr"/>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Janné</t>
+        </is>
+      </c>
       <c r="C826" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20189,7 +20461,11 @@
           <t>حصارات</t>
         </is>
       </c>
-      <c r="B827" t="inlineStr"/>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Hsarate et Richkif</t>
+        </is>
+      </c>
       <c r="C827" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20348,7 +20624,11 @@
           <t>علمات الجنوبية</t>
         </is>
       </c>
-      <c r="B834" t="inlineStr"/>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Almate El-Jenoubiat</t>
+        </is>
+      </c>
       <c r="C834" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20369,7 +20649,11 @@
           <t>علمات الشمالية</t>
         </is>
       </c>
-      <c r="B835" t="inlineStr"/>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Almate El-Chemaliat</t>
+        </is>
+      </c>
       <c r="C835" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20524,7 +20808,11 @@
           <t>عين كفاع</t>
         </is>
       </c>
-      <c r="B842" t="inlineStr"/>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Aïn Kfah</t>
+        </is>
+      </c>
       <c r="C842" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20545,7 +20833,11 @@
           <t>فتري</t>
         </is>
       </c>
-      <c r="B843" t="inlineStr"/>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Fatré et Bir-el-Haït</t>
+        </is>
+      </c>
       <c r="C843" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20566,7 +20858,11 @@
           <t>قرطبا الجنوبية</t>
         </is>
       </c>
-      <c r="B844" t="inlineStr"/>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Kartaba</t>
+        </is>
+      </c>
       <c r="C844" t="inlineStr">
         <is>
           <t>جبيل</t>
@@ -20700,7 +20996,11 @@
           <t>الحسانيه</t>
         </is>
       </c>
-      <c r="B850" t="inlineStr"/>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Hassaniyé</t>
+        </is>
+      </c>
       <c r="C850" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -20771,7 +21071,11 @@
           <t>العيشية</t>
         </is>
       </c>
-      <c r="B853" t="inlineStr"/>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Aïchiyé</t>
+        </is>
+      </c>
       <c r="C853" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -20817,7 +21121,11 @@
           <t>القطراني</t>
         </is>
       </c>
-      <c r="B855" t="inlineStr"/>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Katrani</t>
+        </is>
+      </c>
       <c r="C855" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -20859,7 +21167,11 @@
           <t>حيتوله - وادي الليمون</t>
         </is>
       </c>
-      <c r="B857" t="inlineStr"/>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Haitoulé</t>
+        </is>
+      </c>
       <c r="C857" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -20955,7 +21267,11 @@
           <t>حيطوره</t>
         </is>
       </c>
-      <c r="B861" t="inlineStr"/>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Haïtoura</t>
+        </is>
+      </c>
       <c r="C861" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -20976,7 +21292,11 @@
           <t>ريمات وشقاديف</t>
         </is>
       </c>
-      <c r="B862" t="inlineStr"/>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Rimate</t>
+        </is>
+      </c>
       <c r="C862" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -21022,7 +21342,11 @@
           <t>صفارية</t>
         </is>
       </c>
-      <c r="B864" t="inlineStr"/>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Ariya</t>
+        </is>
+      </c>
       <c r="C864" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -21085,7 +21409,11 @@
           <t>قطين وحيداب</t>
         </is>
       </c>
-      <c r="B867" t="inlineStr"/>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Kattine</t>
+        </is>
+      </c>
       <c r="C867" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -21106,7 +21434,11 @@
           <t>كفر جره</t>
         </is>
       </c>
-      <c r="B868" t="inlineStr"/>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Kafr-Jarra</t>
+        </is>
+      </c>
       <c r="C868" t="inlineStr">
         <is>
           <t>جزين</t>
@@ -21198,7 +21530,11 @@
           <t>الفرزل التحتا</t>
         </is>
       </c>
-      <c r="B872" t="inlineStr"/>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Fourzol</t>
+        </is>
+      </c>
       <c r="C872" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21332,7 +21668,11 @@
           <t>تعنايل</t>
         </is>
       </c>
-      <c r="B878" t="inlineStr"/>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Tanaïl</t>
+        </is>
+      </c>
       <c r="C878" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21374,7 +21714,11 @@
           <t>تويته</t>
         </is>
       </c>
-      <c r="B880" t="inlineStr"/>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Touaité</t>
+        </is>
+      </c>
       <c r="C880" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21734,7 +22078,11 @@
           <t>زحلة الميدان الشرقي</t>
         </is>
       </c>
-      <c r="B896" t="inlineStr"/>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Zahlé Midan</t>
+        </is>
+      </c>
       <c r="C896" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21776,7 +22124,11 @@
           <t>زحلة حوش الامراء</t>
         </is>
       </c>
-      <c r="B898" t="inlineStr"/>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Zahlé Haouche Al-Oumara</t>
+        </is>
+      </c>
       <c r="C898" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21822,7 +22174,11 @@
           <t>زحلة حوش الزراعنه</t>
         </is>
       </c>
-      <c r="B900" t="inlineStr"/>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Zahlé Haouche Al-Zaraané</t>
+        </is>
+      </c>
       <c r="C900" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21864,7 +22220,11 @@
           <t>زحلة سيدة النجاة</t>
         </is>
       </c>
-      <c r="B902" t="inlineStr"/>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Zahlé Saidet Al-Najda</t>
+        </is>
+      </c>
       <c r="C902" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21931,7 +22291,11 @@
           <t>زحلة مار انطونيوس</t>
         </is>
       </c>
-      <c r="B905" t="inlineStr"/>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Zahlé Mar Antonios</t>
+        </is>
+      </c>
       <c r="C905" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -21994,7 +22358,11 @@
           <t>سعدنايل</t>
         </is>
       </c>
-      <c r="B908" t="inlineStr"/>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Saïd Neil</t>
+        </is>
+      </c>
       <c r="C908" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -22086,7 +22454,11 @@
           <t>علي النهري</t>
         </is>
       </c>
-      <c r="B912" t="inlineStr"/>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Al-Ali-Nahri</t>
+        </is>
+      </c>
       <c r="C912" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -22224,7 +22596,11 @@
           <t>قوسايا</t>
         </is>
       </c>
-      <c r="B918" t="inlineStr"/>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Koussaya</t>
+        </is>
+      </c>
       <c r="C918" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -22362,7 +22738,11 @@
           <t>مجدل عنجر</t>
         </is>
       </c>
-      <c r="B924" t="inlineStr"/>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Anjar</t>
+        </is>
+      </c>
       <c r="C924" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -22408,7 +22788,11 @@
           <t>نبي ايلا</t>
         </is>
       </c>
-      <c r="B926" t="inlineStr"/>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Al-Nabi Aïla</t>
+        </is>
+      </c>
       <c r="C926" t="inlineStr">
         <is>
           <t>زحلة</t>
@@ -22684,7 +23068,11 @@
           <t>البحيرة</t>
         </is>
       </c>
-      <c r="B938" t="inlineStr"/>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Bouhairet Toula</t>
+        </is>
+      </c>
       <c r="C938" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -22726,7 +23114,11 @@
           <t>ايعال</t>
         </is>
       </c>
-      <c r="B940" t="inlineStr"/>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Iâl</t>
+        </is>
+      </c>
       <c r="C940" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -22747,7 +23139,11 @@
           <t>بسلوقيط</t>
         </is>
       </c>
-      <c r="B941" t="inlineStr"/>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Basloukite</t>
+        </is>
+      </c>
       <c r="C941" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -22768,7 +23164,11 @@
           <t>بنشعي</t>
         </is>
       </c>
-      <c r="B942" t="inlineStr"/>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Benachée</t>
+        </is>
+      </c>
       <c r="C942" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23048,7 +23448,11 @@
           <t>النورة</t>
         </is>
       </c>
-      <c r="B954" t="inlineStr"/>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Noura El-Faouka et Tahta</t>
+        </is>
+      </c>
       <c r="C954" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -23115,7 +23519,11 @@
           <t>حريقص</t>
         </is>
       </c>
-      <c r="B957" t="inlineStr"/>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Mazraet Hreikess</t>
+        </is>
+      </c>
       <c r="C957" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23161,7 +23569,11 @@
           <t>رشعين</t>
         </is>
       </c>
-      <c r="B959" t="inlineStr"/>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Rachehine</t>
+        </is>
+      </c>
       <c r="C959" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23182,7 +23594,11 @@
           <t>زغرتا حي السيدة الشرقي</t>
         </is>
       </c>
-      <c r="B960" t="inlineStr"/>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Zghorta</t>
+        </is>
+      </c>
       <c r="C960" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23571,7 +23987,11 @@
           <t>كفر شخنا</t>
         </is>
       </c>
-      <c r="B977" t="inlineStr"/>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Kfar Chakna</t>
+        </is>
+      </c>
       <c r="C977" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23642,7 +24062,11 @@
           <t>كفرحاتا</t>
         </is>
       </c>
-      <c r="B980" t="inlineStr"/>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Kfar hata</t>
+        </is>
+      </c>
       <c r="C980" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -23663,7 +24087,11 @@
           <t>مرياطه</t>
         </is>
       </c>
-      <c r="B981" t="inlineStr"/>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Mériata</t>
+        </is>
+      </c>
       <c r="C981" t="inlineStr">
         <is>
           <t>زغرتا</t>
@@ -24182,7 +24610,11 @@
           <t>الشعيتية</t>
         </is>
       </c>
-      <c r="B1004" t="inlineStr"/>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Cheïetiyé</t>
+        </is>
+      </c>
       <c r="C1004" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24316,7 +24748,11 @@
           <t>باريش</t>
         </is>
       </c>
-      <c r="B1010" t="inlineStr"/>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Beiriche</t>
+        </is>
+      </c>
       <c r="C1010" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24429,7 +24865,11 @@
           <t>حناويه</t>
         </is>
       </c>
-      <c r="B1015" t="inlineStr"/>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Hanawé</t>
+        </is>
+      </c>
       <c r="C1015" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24806,7 +25246,11 @@
           <t>طير فلسيه</t>
         </is>
       </c>
-      <c r="B1032" t="inlineStr"/>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Touaire</t>
+        </is>
+      </c>
       <c r="C1032" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24852,7 +25296,11 @@
           <t>عين ابو عبدالله</t>
         </is>
       </c>
-      <c r="B1034" t="inlineStr"/>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Aïn Abou Abdallah</t>
+        </is>
+      </c>
       <c r="C1034" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24894,7 +25342,11 @@
           <t>قليله</t>
         </is>
       </c>
-      <c r="B1036" t="inlineStr"/>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>El-Kleilé</t>
+        </is>
+      </c>
       <c r="C1036" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24957,7 +25409,11 @@
           <t>معروب</t>
         </is>
       </c>
-      <c r="B1039" t="inlineStr"/>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Mahroub</t>
+        </is>
+      </c>
       <c r="C1039" t="inlineStr">
         <is>
           <t>صور</t>
@@ -24978,7 +25434,11 @@
           <t>نفاخيه</t>
         </is>
       </c>
-      <c r="B1040" t="inlineStr"/>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Neffahiyé</t>
+        </is>
+      </c>
       <c r="C1040" t="inlineStr">
         <is>
           <t>صور</t>
@@ -25020,7 +25480,11 @@
           <t>وادي جيلو</t>
         </is>
       </c>
-      <c r="B1042" t="inlineStr"/>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Ouadi Djilou</t>
+        </is>
+      </c>
       <c r="C1042" t="inlineStr">
         <is>
           <t>صور</t>
@@ -25154,7 +25618,11 @@
           <t>الشويفات حي الامراء</t>
         </is>
       </c>
-      <c r="B1048" t="inlineStr"/>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Chouaifat Oumara</t>
+        </is>
+      </c>
       <c r="C1048" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25175,7 +25643,11 @@
           <t>الشويفات حي العمروسية</t>
         </is>
       </c>
-      <c r="B1049" t="inlineStr"/>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Chouaifat Amroussyat</t>
+        </is>
+      </c>
       <c r="C1049" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25196,7 +25668,11 @@
           <t>الشويفات حي القبة</t>
         </is>
       </c>
-      <c r="B1050" t="inlineStr"/>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Chouaifat Qobbat</t>
+        </is>
+      </c>
       <c r="C1050" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25309,7 +25785,11 @@
           <t>بحواره</t>
         </is>
       </c>
-      <c r="B1055" t="inlineStr"/>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Bhouara</t>
+        </is>
+      </c>
       <c r="C1055" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25355,7 +25835,11 @@
           <t>بعورته</t>
         </is>
       </c>
-      <c r="B1057" t="inlineStr"/>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Baouarta</t>
+        </is>
+      </c>
       <c r="C1057" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25401,7 +25885,11 @@
           <t>بوزريده</t>
         </is>
       </c>
-      <c r="B1059" t="inlineStr"/>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Bouzridé</t>
+        </is>
+      </c>
       <c r="C1059" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25643,7 +26131,11 @@
           <t>صوفر</t>
         </is>
       </c>
-      <c r="B1069" t="inlineStr"/>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Aïn Sofar</t>
+        </is>
+      </c>
       <c r="C1069" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25664,7 +26156,11 @@
           <t>عاليه شمالي</t>
         </is>
       </c>
-      <c r="B1070" t="inlineStr"/>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Aley</t>
+        </is>
+      </c>
       <c r="C1070" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25798,7 +26294,11 @@
           <t>عين الجديدة</t>
         </is>
       </c>
-      <c r="B1076" t="inlineStr"/>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Aïn-El-Jdeidé</t>
+        </is>
+      </c>
       <c r="C1076" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -25844,7 +26344,11 @@
           <t>عين السيدة</t>
         </is>
       </c>
-      <c r="B1078" t="inlineStr"/>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Ain Saideh</t>
+        </is>
+      </c>
       <c r="C1078" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -26007,7 +26511,11 @@
           <t>عين المرج</t>
         </is>
       </c>
-      <c r="B1085" t="inlineStr"/>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>El-Mansouriyeh et Aïn-El-Marge</t>
+        </is>
+      </c>
       <c r="C1085" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -26028,7 +26536,11 @@
           <t>عين داره</t>
         </is>
       </c>
-      <c r="B1086" t="inlineStr"/>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Aïn-Dara</t>
+        </is>
+      </c>
       <c r="C1086" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -26099,7 +26611,11 @@
           <t>كفر عميه</t>
         </is>
       </c>
-      <c r="B1089" t="inlineStr"/>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Kfar-Aammay</t>
+        </is>
+      </c>
       <c r="C1089" t="inlineStr">
         <is>
           <t>عاليه</t>
@@ -27455,7 +27971,11 @@
           <t>حكر الشيخ طابا</t>
         </is>
       </c>
-      <c r="B1145" t="inlineStr"/>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Cheikh Taba Plaine</t>
+        </is>
+      </c>
       <c r="C1145" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -27551,7 +28071,11 @@
           <t>حوشب</t>
         </is>
       </c>
-      <c r="B1149" t="inlineStr"/>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>El-Haouchab</t>
+        </is>
+      </c>
       <c r="C1149" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -27760,7 +28284,11 @@
           <t>دارين</t>
         </is>
       </c>
-      <c r="B1158" t="inlineStr"/>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Deirine</t>
+        </is>
+      </c>
       <c r="C1158" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -28486,7 +29014,11 @@
           <t>ضهر ليسينه</t>
         </is>
       </c>
-      <c r="B1188" t="inlineStr"/>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Dahr-Leyciné</t>
+        </is>
+      </c>
       <c r="C1188" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -28578,7 +29110,11 @@
           <t>عكار العتيقه</t>
         </is>
       </c>
-      <c r="B1192" t="inlineStr"/>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Akkar El-Atika</t>
+        </is>
+      </c>
       <c r="C1192" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -28670,7 +29206,11 @@
           <t>عيات</t>
         </is>
       </c>
-      <c r="B1196" t="inlineStr"/>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Iate</t>
+        </is>
+      </c>
       <c r="C1196" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -28691,7 +29231,11 @@
           <t>عيدمون</t>
         </is>
       </c>
-      <c r="B1197" t="inlineStr"/>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Aidamoun shikhlar</t>
+        </is>
+      </c>
       <c r="C1197" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -30128,7 +30672,11 @@
           <t>الدكوه</t>
         </is>
       </c>
-      <c r="B1258" t="inlineStr"/>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>Dakoué</t>
+        </is>
+      </c>
       <c r="C1258" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30170,7 +30718,11 @@
           <t>السلطان يعقوب التحتا</t>
         </is>
       </c>
-      <c r="B1260" t="inlineStr"/>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>Soltan-Yacoub</t>
+        </is>
+      </c>
       <c r="C1260" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30258,7 +30810,11 @@
           <t>العقبة</t>
         </is>
       </c>
-      <c r="B1264" t="inlineStr"/>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Akabé</t>
+        </is>
+      </c>
       <c r="C1264" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30279,7 +30835,11 @@
           <t>المنارة</t>
         </is>
       </c>
-      <c r="B1265" t="inlineStr"/>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Hamara</t>
+        </is>
+      </c>
       <c r="C1265" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30300,7 +30860,11 @@
           <t>المنصوره</t>
         </is>
       </c>
-      <c r="B1266" t="inlineStr"/>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Mansoura</t>
+        </is>
+      </c>
       <c r="C1266" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30421,7 +30985,11 @@
           <t>حلوه</t>
         </is>
       </c>
-      <c r="B1271" t="inlineStr"/>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Héloua</t>
+        </is>
+      </c>
       <c r="C1271" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30697,7 +31265,11 @@
           <t>سلساتا</t>
         </is>
       </c>
-      <c r="B1283" t="inlineStr"/>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>Mazraet el-Selasata</t>
+        </is>
+      </c>
       <c r="C1283" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -30760,7 +31332,11 @@
           <t>عين حرشا</t>
         </is>
       </c>
-      <c r="B1286" t="inlineStr"/>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Aïn Arab</t>
+        </is>
+      </c>
       <c r="C1286" t="inlineStr">
         <is>
           <t>قضاءي البقاع الغربي وراشيا</t>
@@ -31350,7 +31926,11 @@
           <t>النبي شيت حي الجامع</t>
         </is>
       </c>
-      <c r="B1312" t="inlineStr"/>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>Al-Nabi Chite</t>
+        </is>
+      </c>
       <c r="C1312" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -31610,7 +32190,11 @@
           <t>الهرمل حي الحارة</t>
         </is>
       </c>
-      <c r="B1324" t="inlineStr"/>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Hermel</t>
+        </is>
+      </c>
       <c r="C1324" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -31698,7 +32282,11 @@
           <t>اليمونه</t>
         </is>
       </c>
-      <c r="B1328" t="inlineStr"/>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Yamouné</t>
+        </is>
+      </c>
       <c r="C1328" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -31819,7 +32407,11 @@
           <t>برقه</t>
         </is>
       </c>
-      <c r="B1333" t="inlineStr"/>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Barka</t>
+        </is>
+      </c>
       <c r="C1333" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -32282,7 +32874,11 @@
           <t>بيت مشيك</t>
         </is>
       </c>
-      <c r="B1352" t="inlineStr"/>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Mazraet Beit Mcheik</t>
+        </is>
+      </c>
       <c r="C1352" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -32428,7 +33024,11 @@
           <t>جبعا</t>
         </is>
       </c>
-      <c r="B1358" t="inlineStr"/>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Jabba</t>
+        </is>
+      </c>
       <c r="C1358" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -32474,7 +33074,11 @@
           <t>جبوله</t>
         </is>
       </c>
-      <c r="B1360" t="inlineStr"/>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Jaboulé et Al-Bijage</t>
+        </is>
+      </c>
       <c r="C1360" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -33233,7 +33837,11 @@
           <t>حي الست</t>
         </is>
       </c>
-      <c r="B1391" t="inlineStr"/>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Couvent St Maron</t>
+        </is>
+      </c>
       <c r="C1391" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -33463,7 +34071,11 @@
           <t>راس بعلبك</t>
         </is>
       </c>
-      <c r="B1401" t="inlineStr"/>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Baalbek</t>
+        </is>
+      </c>
       <c r="C1401" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -33726,7 +34338,11 @@
           <t>شعت حي الجامع</t>
         </is>
       </c>
-      <c r="B1412" t="inlineStr"/>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>Chaat</t>
+        </is>
+      </c>
       <c r="C1412" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -33818,7 +34434,11 @@
           <t>مشيلحة حاكوره</t>
         </is>
       </c>
-      <c r="B1416" t="inlineStr"/>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>Mechaïlha Hakour</t>
+        </is>
+      </c>
       <c r="C1416" t="inlineStr">
         <is>
           <t>عكار</t>
@@ -35643,7 +36263,11 @@
           <t>وادي العس</t>
         </is>
       </c>
-      <c r="B1493" t="inlineStr"/>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>Addous</t>
+        </is>
+      </c>
       <c r="C1493" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -35852,7 +36476,11 @@
           <t>وادي فعرة</t>
         </is>
       </c>
-      <c r="B1502" t="inlineStr"/>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Ouadi Faara</t>
+        </is>
+      </c>
       <c r="C1502" t="inlineStr">
         <is>
           <t>قضاءي بعلبك والهرمل</t>
@@ -36023,7 +36651,11 @@
           <t>ابل السقي</t>
         </is>
       </c>
-      <c r="B1509" t="inlineStr"/>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Ebel-El-Saki</t>
+        </is>
+      </c>
       <c r="C1509" t="inlineStr">
         <is>
           <t>قضاءي مرجعيون وحاصبيا</t>
@@ -36069,7 +36701,11 @@
           <t>ابو قمحه</t>
         </is>
       </c>
-      <c r="B1511" t="inlineStr"/>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>Abou Kamha</t>
+        </is>
+      </c>
       <c r="C1511" t="inlineStr">
         <is>
           <t>قضاءي مرجعيون وحاصبيا</t>
@@ -36777,7 +37413,11 @@
           <t>قنطره</t>
         </is>
       </c>
-      <c r="B1543" t="inlineStr"/>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Kantara</t>
+        </is>
+      </c>
       <c r="C1543" t="inlineStr">
         <is>
           <t>قضاءي مرجعيون وحاصبيا</t>
@@ -36819,7 +37459,11 @@
           <t>مرج الزهور</t>
         </is>
       </c>
-      <c r="B1545" t="inlineStr"/>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Marj Ez-Zouhour (Haouch El-Qinnaabé)</t>
+        </is>
+      </c>
       <c r="C1545" t="inlineStr">
         <is>
           <t>قضاءي مرجعيون وحاصبيا</t>
@@ -36840,7 +37484,11 @@
           <t>ميس الجبل جنوبي</t>
         </is>
       </c>
-      <c r="B1546" t="inlineStr"/>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Meis El-Jabal</t>
+        </is>
+      </c>
       <c r="C1546" t="inlineStr">
         <is>
           <t>قضاءي مرجعيون وحاصبيا</t>
@@ -37095,7 +37743,11 @@
           <t>العقيبه</t>
         </is>
       </c>
-      <c r="B1557" t="inlineStr"/>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>El-Ekaïbé</t>
+        </is>
+      </c>
       <c r="C1557" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37283,7 +37935,11 @@
           <t>بقعتوته</t>
         </is>
       </c>
-      <c r="B1565" t="inlineStr"/>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Bekaatouta</t>
+        </is>
+      </c>
       <c r="C1565" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37379,7 +38035,11 @@
           <t>زعيتره</t>
         </is>
       </c>
-      <c r="B1569" t="inlineStr"/>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Zaaitré</t>
+        </is>
+      </c>
       <c r="C1569" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37400,7 +38060,11 @@
           <t>زوق مكايل</t>
         </is>
       </c>
-      <c r="B1570" t="inlineStr"/>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Zouk Mikaèl</t>
+        </is>
+      </c>
       <c r="C1570" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37442,7 +38106,11 @@
           <t>شننعير</t>
         </is>
       </c>
-      <c r="B1572" t="inlineStr"/>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Chenanhir</t>
+        </is>
+      </c>
       <c r="C1572" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37509,7 +38177,11 @@
           <t>عينطوره</t>
         </is>
       </c>
-      <c r="B1575" t="inlineStr"/>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Antoura</t>
+        </is>
+      </c>
       <c r="C1575" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37530,7 +38202,11 @@
           <t>غادير</t>
         </is>
       </c>
-      <c r="B1576" t="inlineStr"/>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Djounié Ghadir</t>
+        </is>
+      </c>
       <c r="C1576" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37551,7 +38227,11 @@
           <t>غزير الجامع</t>
         </is>
       </c>
-      <c r="B1577" t="inlineStr"/>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Ghazir</t>
+        </is>
+      </c>
       <c r="C1577" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37639,7 +38319,11 @@
           <t>كفردبيان</t>
         </is>
       </c>
-      <c r="B1581" t="inlineStr"/>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Mazraet Kfardebiane</t>
+        </is>
+      </c>
       <c r="C1581" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -37710,7 +38394,11 @@
           <t>هرهريا والقطين</t>
         </is>
       </c>
-      <c r="B1584" t="inlineStr"/>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Herhraya et Kattine</t>
+        </is>
+      </c>
       <c r="C1584" t="inlineStr">
         <is>
           <t>كسروان</t>
@@ -38258,7 +38946,11 @@
           <t>الحدادين</t>
         </is>
       </c>
-      <c r="B1608" t="inlineStr"/>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Tripoli Al Haddadin</t>
+        </is>
+      </c>
       <c r="C1608" t="inlineStr">
         <is>
           <t>مدينة طرابلس</t>
@@ -38279,7 +38971,11 @@
           <t>الحديد</t>
         </is>
       </c>
-      <c r="B1609" t="inlineStr"/>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Tripoli Al-Hadid</t>
+        </is>
+      </c>
       <c r="C1609" t="inlineStr">
         <is>
           <t>مدينة طرابلس</t>
@@ -38726,7 +39422,11 @@
           <t>النوري</t>
         </is>
       </c>
-      <c r="B1628" t="inlineStr"/>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Tripoli Al-Nouri</t>
+        </is>
+      </c>
       <c r="C1628" t="inlineStr">
         <is>
           <t>مدينة طرابلس</t>
@@ -38851,7 +39551,11 @@
           <t>Aidamoun shikhlar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>عيدمون</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -38947,7 +39651,11 @@
           <t>Akkar El-Atika</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>عكار العتيقه</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -39403,7 +40111,11 @@
           <t>Al-Souaissé</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>السويسه</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -39862,7 +40574,11 @@
           <t>Chakdouf</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>الشقدوف</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -39958,7 +40674,11 @@
           <t>Cheikh Taba Montagne</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>الشيخ طابا</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -39979,7 +40699,11 @@
           <t>Cheikh Taba Plaine</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>حكر الشيخ طابا</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40000,7 +40724,11 @@
           <t>Cheikh Zennad Tal Bibé</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>الشيخ زناد</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40067,7 +40795,11 @@
           <t>Dabbabiyé Charkié</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>الدبابيه</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40088,7 +40820,11 @@
           <t>Dahr-Leyciné</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ضهر ليسينه</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40193,7 +40929,11 @@
           <t>Daoura</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>الدوره</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40285,7 +41025,11 @@
           <t>Deirine</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>دارين</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -40515,7 +41259,11 @@
           <t>El-Haouchab</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>حوشب</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -41158,7 +41906,11 @@
           <t>Homeira</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>الحميره</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -41179,7 +41931,11 @@
           <t>Iate</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>عيات</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -41977,7 +42733,11 @@
           <t>Mechaïlha Hakour</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>مشيلحة حاكوره</t>
+        </is>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -42144,7 +42904,11 @@
           <t>Noura El-Faouka et Tahta</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>النورة</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -42499,7 +43263,11 @@
           <t>Sindianet Zeidan</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>السنديانة</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
           <t>Akkar</t>
@@ -42883,7 +43651,11 @@
           <t>Addous</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>وادي العس</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43105,7 +43877,11 @@
           <t>Al-Nabi Chite</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>النبي شيت حي الجامع</t>
+        </is>
+      </c>
       <c r="C185" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43302,7 +44078,11 @@
           <t>Baalbek</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>راس بعلبك</t>
+        </is>
+      </c>
       <c r="C194" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43373,7 +44153,11 @@
           <t>Barka</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>برقه</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43494,7 +44278,11 @@
           <t>Chaat</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>شعت حي الجامع</t>
+        </is>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43607,7 +44395,11 @@
           <t>Couvent St Maron</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>حي الست</t>
+        </is>
+      </c>
       <c r="C207" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -43995,7 +44787,11 @@
           <t>Jabba</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>جبعا</t>
+        </is>
+      </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -44016,7 +44812,11 @@
           <t>Jaboulé et Al-Bijage</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>جبوله</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -44129,7 +44929,11 @@
           <t>Khreibé</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>الخريبه حي الجامع</t>
+        </is>
+      </c>
       <c r="C229" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -44292,7 +45096,11 @@
           <t>Mazraet Beit Mcheik</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>بيت مشيك</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -44768,7 +45576,11 @@
           <t>Yamouné</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>اليمونه</t>
+        </is>
+      </c>
       <c r="C256" t="inlineStr">
         <is>
           <t>Baalbeck</t>
@@ -44956,7 +45768,11 @@
           <t>Hermel</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>الهرمل حي الحارة</t>
+        </is>
+      </c>
       <c r="C264" t="inlineStr">
         <is>
           <t>Hermel</t>
@@ -44977,7 +45793,11 @@
           <t>Hermel Charbine</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>الشربين</t>
+        </is>
+      </c>
       <c r="C265" t="inlineStr">
         <is>
           <t>Hermel</t>
@@ -45082,7 +45902,11 @@
           <t>Ouadi Faara</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>وادي فعرة</t>
+        </is>
+      </c>
       <c r="C270" t="inlineStr">
         <is>
           <t>Hermel</t>
@@ -45512,7 +46336,11 @@
           <t>Aïn Arab</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>عين حرشا</t>
+        </is>
+      </c>
       <c r="C288" t="inlineStr">
         <is>
           <t>Rachiaya</t>
@@ -45579,7 +46407,11 @@
           <t>Akabé</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr"/>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>العقبة</t>
+        </is>
+      </c>
       <c r="C291" t="inlineStr">
         <is>
           <t>Rachiaya</t>
@@ -45813,7 +46645,11 @@
           <t>Héloua</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr"/>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>حلوه</t>
+        </is>
+      </c>
       <c r="C301" t="inlineStr">
         <is>
           <t>Rachiaya</t>
@@ -45997,7 +46833,11 @@
           <t>Mazraet el-Selasata</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr"/>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>سلساتا</t>
+        </is>
+      </c>
       <c r="C309" t="inlineStr">
         <is>
           <t>Rachiaya</t>
@@ -46507,7 +47347,11 @@
           <t>Dakoué</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>الدكوه</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr">
         <is>
           <t>West Bekaa</t>
@@ -46599,7 +47443,11 @@
           <t>Hamara</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>المنارة</t>
+        </is>
+      </c>
       <c r="C335" t="inlineStr">
         <is>
           <t>West Bekaa</t>
@@ -46933,7 +47781,11 @@
           <t>Mansoura</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>المنصوره</t>
+        </is>
+      </c>
       <c r="C349" t="inlineStr">
         <is>
           <t>West Bekaa</t>
@@ -47025,7 +47877,11 @@
           <t>Soltan-Yacoub</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>السلطان يعقوب التحتا</t>
+        </is>
+      </c>
       <c r="C353" t="inlineStr">
         <is>
           <t>West Bekaa</t>
@@ -47171,7 +48027,11 @@
           <t>Al-Ali-Nahri</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>علي النهري</t>
+        </is>
+      </c>
       <c r="C359" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -47217,7 +48077,11 @@
           <t>Al-Nabi Aïla</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>نبي ايلا</t>
+        </is>
+      </c>
       <c r="C361" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -47263,7 +48127,11 @@
           <t>Anjar</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr"/>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>مجدل عنجر</t>
+        </is>
+      </c>
       <c r="C363" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -47451,7 +48319,11 @@
           <t>Fourzol</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr"/>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>الفرزل التحتا</t>
+        </is>
+      </c>
       <c r="C371" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -47727,7 +48599,11 @@
           <t>Koussaya</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr"/>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>قوسايا</t>
+        </is>
+      </c>
       <c r="C383" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48024,7 +48900,11 @@
           <t>Saïd Neil</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr"/>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>سعدنايل</t>
+        </is>
+      </c>
       <c r="C396" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48112,7 +48992,11 @@
           <t>Tanaïl</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr"/>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>تعنايل</t>
+        </is>
+      </c>
       <c r="C400" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48200,7 +49084,11 @@
           <t>Touaité</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr"/>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>تويته</t>
+        </is>
+      </c>
       <c r="C404" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48334,7 +49222,11 @@
           <t>Zahlé Haouche Al-Oumara</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr"/>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>زحلة حوش الامراء</t>
+        </is>
+      </c>
       <c r="C410" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48355,7 +49247,11 @@
           <t>Zahlé Haouche Al-Zaraané</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr"/>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>زحلة حوش الزراعنه</t>
+        </is>
+      </c>
       <c r="C411" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48397,7 +49293,11 @@
           <t>Zahlé Mar Antonios</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr"/>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>زحلة مار انطونيوس</t>
+        </is>
+      </c>
       <c r="C413" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48464,7 +49364,11 @@
           <t>Zahlé Midan</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr"/>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>زحلة الميدان الشرقي</t>
+        </is>
+      </c>
       <c r="C416" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48485,7 +49389,11 @@
           <t>Zahlé Saidet Al-Najda</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr"/>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>زحلة سيدة النجاة</t>
+        </is>
+      </c>
       <c r="C417" t="inlineStr">
         <is>
           <t>Zahleh</t>
@@ -48577,7 +49485,11 @@
           <t>Aïn-Dara</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr"/>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>عين داره</t>
+        </is>
+      </c>
       <c r="C421" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -48598,7 +49510,11 @@
           <t>Aïn-El-Jdeidé</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr"/>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>عين الجديدة</t>
+        </is>
+      </c>
       <c r="C422" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -48740,7 +49656,11 @@
           <t>Ain Saideh</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>عين السيدة</t>
+        </is>
+      </c>
       <c r="C428" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -48761,7 +49681,11 @@
           <t>Aïn Sofar</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>صوفر</t>
+        </is>
+      </c>
       <c r="C429" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -48857,7 +49781,11 @@
           <t>Aley</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr"/>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>عاليه شمالي</t>
+        </is>
+      </c>
       <c r="C433" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -48924,7 +49852,11 @@
           <t>Baouarta</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr"/>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>بعورته</t>
+        </is>
+      </c>
       <c r="C436" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49066,7 +49998,11 @@
           <t>Bhouara</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr"/>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>بحواره</t>
+        </is>
+      </c>
       <c r="C442" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49212,7 +50148,11 @@
           <t>Bouzridé</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr"/>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>بوزريده</t>
+        </is>
+      </c>
       <c r="C448" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49425,7 +50365,11 @@
           <t>Chouaifat Amroussyat</t>
         </is>
       </c>
-      <c r="B457" t="inlineStr"/>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>الشويفات حي العمروسية</t>
+        </is>
+      </c>
       <c r="C457" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49446,7 +50390,11 @@
           <t>Chouaifat Oumara</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr"/>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>الشويفات حي الامراء</t>
+        </is>
+      </c>
       <c r="C458" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49467,7 +50415,11 @@
           <t>Chouaifat Qobbat</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr"/>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>الشويفات حي القبة</t>
+        </is>
+      </c>
       <c r="C459" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49726,7 +50678,11 @@
           <t>El-Mansouriyeh et Aïn-El-Marge</t>
         </is>
       </c>
-      <c r="B470" t="inlineStr"/>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>عين المرج</t>
+        </is>
+      </c>
       <c r="C470" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -49939,7 +50895,11 @@
           <t>Kfar-Aammay</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr"/>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>كفر عميه</t>
+        </is>
+      </c>
       <c r="C479" t="inlineStr">
         <is>
           <t>Aley</t>
@@ -50377,7 +51337,11 @@
           <t>Baalchemay</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>بعلشميه</t>
+        </is>
+      </c>
       <c r="C497" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -50423,7 +51387,11 @@
           <t>Borge el Baragenat</t>
         </is>
       </c>
-      <c r="B499" t="inlineStr"/>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>برج البراجنة حي السنديان</t>
+        </is>
+      </c>
       <c r="C499" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -50444,7 +51412,11 @@
           <t>Boutchay</t>
         </is>
       </c>
-      <c r="B500" t="inlineStr"/>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>بطشيه</t>
+        </is>
+      </c>
       <c r="C500" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -50586,7 +51558,11 @@
           <t>Chiah</t>
         </is>
       </c>
-      <c r="B506" t="inlineStr"/>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>الشياح بئر العبد</t>
+        </is>
+      </c>
       <c r="C506" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -51096,7 +52072,11 @@
           <t>Haret Horaïk</t>
         </is>
       </c>
-      <c r="B528" t="inlineStr"/>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>حارة حريك حي الرويس</t>
+        </is>
+      </c>
       <c r="C528" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -51409,7 +52389,11 @@
           <t>Mardachat</t>
         </is>
       </c>
-      <c r="B541" t="inlineStr"/>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>المرداشة</t>
+        </is>
+      </c>
       <c r="C541" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -51651,7 +52635,11 @@
           <t>Zandouka</t>
         </is>
       </c>
-      <c r="B551" t="inlineStr"/>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>زندوقه</t>
+        </is>
+      </c>
       <c r="C551" t="inlineStr">
         <is>
           <t>Baabda</t>
@@ -51743,7 +52731,11 @@
           <t>Aïn Ouzaï</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr"/>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>عين وزين</t>
+        </is>
+      </c>
       <c r="C555" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -51864,7 +52856,11 @@
           <t>Anbal</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr"/>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>البطال</t>
+        </is>
+      </c>
       <c r="C560" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -51960,7 +52956,11 @@
           <t>Baakline</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr"/>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>بعقلين التحتا</t>
+        </is>
+      </c>
       <c r="C564" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -52248,7 +53248,11 @@
           <t>Brih et Mteilé</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr"/>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>بريح</t>
+        </is>
+      </c>
       <c r="C576" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -52294,7 +53298,11 @@
           <t>Chehime</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr"/>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>شحيم حي البدوي</t>
+        </is>
+      </c>
       <c r="C578" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -52804,11 +53812,7 @@
           <t>El-Jahliyeh</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>الجاهلية</t>
-        </is>
-      </c>
+      <c r="B600" t="inlineStr"/>
       <c r="C600" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -53247,7 +54251,11 @@
           <t>Jadra</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr"/>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>جدرا - وادي الزينة</t>
+        </is>
+      </c>
       <c r="C619" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -53431,7 +54439,11 @@
           <t>Kfar Katra</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr"/>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>كفر قطره</t>
+        </is>
+      </c>
       <c r="C627" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -53694,7 +54706,11 @@
           <t>Majdel Meouche</t>
         </is>
       </c>
-      <c r="B638" t="inlineStr"/>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>مجدل المعوش</t>
+        </is>
+      </c>
       <c r="C638" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -53740,7 +54756,11 @@
           <t>Mazmoura</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr"/>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>مزموره</t>
+        </is>
+      </c>
       <c r="C640" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -53836,7 +54856,11 @@
           <t>Mtoullé Bzina</t>
         </is>
       </c>
-      <c r="B644" t="inlineStr"/>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>المطله</t>
+        </is>
+      </c>
       <c r="C644" t="inlineStr">
         <is>
           <t>Chouf</t>
@@ -54099,7 +55123,11 @@
           <t>Abou-Mizane</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr"/>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>ابو ميزان</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54341,7 +55369,11 @@
           <t>Aïn El-Kabou</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr"/>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>عين القبو ودير مار سمعان</t>
+        </is>
+      </c>
       <c r="C665" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54362,7 +55394,11 @@
           <t>Aïroune</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr"/>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>العيرون</t>
+        </is>
+      </c>
       <c r="C666" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54408,7 +55444,11 @@
           <t>Antoura</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr"/>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>عينطوره</t>
+        </is>
+      </c>
       <c r="C668" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54429,7 +55469,11 @@
           <t>Baabdat et Sfaïlé</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr"/>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>بعبدات</t>
+        </is>
+      </c>
       <c r="C669" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54450,7 +55494,11 @@
           <t>Baouchariat</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr"/>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>البوشريه</t>
+        </is>
+      </c>
       <c r="C670" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54492,7 +55540,11 @@
           <t>Beit Chebab</t>
         </is>
       </c>
-      <c r="B672" t="inlineStr"/>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>بيت شباب تحتاني</t>
+        </is>
+      </c>
       <c r="C672" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54809,7 +55861,11 @@
           <t>Choueir</t>
         </is>
       </c>
-      <c r="B685" t="inlineStr"/>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>الشوير</t>
+        </is>
+      </c>
       <c r="C685" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54951,7 +56007,11 @@
           <t>Dekouanet</t>
         </is>
       </c>
-      <c r="B691" t="inlineStr"/>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>الدكوانه</t>
+        </is>
+      </c>
       <c r="C691" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -54997,7 +56057,11 @@
           <t>Douar</t>
         </is>
       </c>
-      <c r="B693" t="inlineStr"/>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>الدوار</t>
+        </is>
+      </c>
       <c r="C693" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -55519,7 +56583,11 @@
           <t>Jodaidat</t>
         </is>
       </c>
-      <c r="B715" t="inlineStr"/>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>الجديدة</t>
+        </is>
+      </c>
       <c r="C715" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -55565,7 +56633,11 @@
           <t>Kaakour</t>
         </is>
       </c>
-      <c r="B717" t="inlineStr"/>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>القعقور</t>
+        </is>
+      </c>
       <c r="C717" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -55945,7 +57017,11 @@
           <t>Maska et El-Ghabeh</t>
         </is>
       </c>
-      <c r="B733" t="inlineStr"/>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>الغابه</t>
+        </is>
+      </c>
       <c r="C733" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -55966,7 +57042,11 @@
           <t>Mazraet Beit Chaar</t>
         </is>
       </c>
-      <c r="B734" t="inlineStr"/>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>بيت الشعار</t>
+        </is>
+      </c>
       <c r="C734" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -55987,7 +57067,11 @@
           <t>Mazraet Deir Aoukar</t>
         </is>
       </c>
-      <c r="B735" t="inlineStr"/>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>عوكر</t>
+        </is>
+      </c>
       <c r="C735" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -56079,7 +57163,11 @@
           <t>Mezher</t>
         </is>
       </c>
-      <c r="B739" t="inlineStr"/>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>مزهر ومجدوب</t>
+        </is>
+      </c>
       <c r="C739" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -56196,7 +57284,11 @@
           <t>Sakiet-El-Misk et Bhorsaf</t>
         </is>
       </c>
-      <c r="B744" t="inlineStr"/>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>ساقية المسك</t>
+        </is>
+      </c>
       <c r="C744" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -56217,7 +57309,11 @@
           <t>Senn el Fil</t>
         </is>
       </c>
-      <c r="B745" t="inlineStr"/>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>سن الفيل حي البلده</t>
+        </is>
+      </c>
       <c r="C745" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -56434,7 +57530,11 @@
           <t>Zouk-Khrab</t>
         </is>
       </c>
-      <c r="B754" t="inlineStr"/>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>زوق الخراب ومار يوسف</t>
+        </is>
+      </c>
       <c r="C754" t="inlineStr">
         <is>
           <t>El Metn</t>
@@ -56480,7 +57580,11 @@
           <t>Adonis et Sannour</t>
         </is>
       </c>
-      <c r="B756" t="inlineStr"/>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>ادونيس</t>
+        </is>
+      </c>
       <c r="C756" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -56593,7 +57697,11 @@
           <t>Aïn Kfah</t>
         </is>
       </c>
-      <c r="B761" t="inlineStr"/>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>عين كفاع</t>
+        </is>
+      </c>
       <c r="C761" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -56677,7 +57785,11 @@
           <t>Almate El-Chemaliat</t>
         </is>
       </c>
-      <c r="B765" t="inlineStr"/>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>علمات الشمالية</t>
+        </is>
+      </c>
       <c r="C765" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -56698,7 +57810,11 @@
           <t>Almate El-Jenoubiat</t>
         </is>
       </c>
-      <c r="B766" t="inlineStr"/>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>علمات الجنوبية</t>
+        </is>
+      </c>
       <c r="C766" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -57262,7 +58378,11 @@
           <t>El-Kafr et El-Harf</t>
         </is>
       </c>
-      <c r="B790" t="inlineStr"/>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>الكفر</t>
+        </is>
+      </c>
       <c r="C790" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -57521,7 +58641,11 @@
           <t>Fatré et Bir-el-Haït</t>
         </is>
       </c>
-      <c r="B801" t="inlineStr"/>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>فتري</t>
+        </is>
+      </c>
       <c r="C801" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -57617,7 +58741,11 @@
           <t>Ghabate</t>
         </is>
       </c>
-      <c r="B805" t="inlineStr"/>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>الغابات</t>
+        </is>
+      </c>
       <c r="C805" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -57905,7 +59033,11 @@
           <t>Hsarate et Richkif</t>
         </is>
       </c>
-      <c r="B817" t="inlineStr"/>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>حصارات</t>
+        </is>
+      </c>
       <c r="C817" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -57951,7 +59083,11 @@
           <t>Janné</t>
         </is>
       </c>
-      <c r="B819" t="inlineStr"/>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>جنه ومار سركيس</t>
+        </is>
+      </c>
       <c r="C819" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -58043,7 +59179,11 @@
           <t>Kartaba</t>
         </is>
       </c>
-      <c r="B823" t="inlineStr"/>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>قرطبا الجنوبية</t>
+        </is>
+      </c>
       <c r="C823" t="inlineStr">
         <is>
           <t>Jubail</t>
@@ -59037,7 +60177,11 @@
           <t>Bekaatouta</t>
         </is>
       </c>
-      <c r="B865" t="inlineStr"/>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>بقعتوته</t>
+        </is>
+      </c>
       <c r="C865" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -59154,7 +60298,11 @@
           <t>Chenanhir</t>
         </is>
       </c>
-      <c r="B870" t="inlineStr"/>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>شننعير</t>
+        </is>
+      </c>
       <c r="C870" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -59246,7 +60394,11 @@
           <t>Djounié Ghadir</t>
         </is>
       </c>
-      <c r="B874" t="inlineStr"/>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>غادير</t>
+        </is>
+      </c>
       <c r="C874" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -59430,7 +60582,11 @@
           <t>El-Ekaïbé</t>
         </is>
       </c>
-      <c r="B882" t="inlineStr"/>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>العقيبه</t>
+        </is>
+      </c>
       <c r="C882" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -59718,7 +60874,11 @@
           <t>Ghazir</t>
         </is>
       </c>
-      <c r="B894" t="inlineStr"/>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>غزير الجامع</t>
+        </is>
+      </c>
       <c r="C894" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -59864,7 +61024,11 @@
           <t>Herhraya et Kattine</t>
         </is>
       </c>
-      <c r="B900" t="inlineStr"/>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>هرهريا والقطين</t>
+        </is>
+      </c>
       <c r="C900" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -60219,7 +61383,11 @@
           <t>Mazraet Kfardebiane</t>
         </is>
       </c>
-      <c r="B915" t="inlineStr"/>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>كفردبيان</t>
+        </is>
+      </c>
       <c r="C915" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -60537,7 +61705,11 @@
           <t>Zaaitré</t>
         </is>
       </c>
-      <c r="B929" t="inlineStr"/>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>زعيتره</t>
+        </is>
+      </c>
       <c r="C929" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -60583,7 +61755,11 @@
           <t>Zouk Mikaèl</t>
         </is>
       </c>
-      <c r="B931" t="inlineStr"/>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>زوق مكايل</t>
+        </is>
+      </c>
       <c r="C931" t="inlineStr">
         <is>
           <t>Kasrouane</t>
@@ -60975,7 +62151,11 @@
           <t>El-Kouzah</t>
         </is>
       </c>
-      <c r="B947" t="inlineStr"/>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>قوزح</t>
+        </is>
+      </c>
       <c r="C947" t="inlineStr">
         <is>
           <t>Bint Jbayl</t>
@@ -61046,7 +62226,11 @@
           <t>Ghandouriyé</t>
         </is>
       </c>
-      <c r="B950" t="inlineStr"/>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>غندورية</t>
+        </is>
+      </c>
       <c r="C950" t="inlineStr">
         <is>
           <t>Bint Jbayl</t>
@@ -61563,7 +62747,11 @@
           <t>Abou Kamha</t>
         </is>
       </c>
-      <c r="B971" t="inlineStr"/>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>ابو قمحه</t>
+        </is>
+      </c>
       <c r="C971" t="inlineStr">
         <is>
           <t>Hasbaya</t>
@@ -62001,7 +63189,11 @@
           <t>Marj Ez-Zouhour (Haouch El-Qinnaabé)</t>
         </is>
       </c>
-      <c r="B989" t="inlineStr"/>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>مرج الزهور</t>
+        </is>
+      </c>
       <c r="C989" t="inlineStr">
         <is>
           <t>Hasbaya</t>
@@ -62406,7 +63598,11 @@
           <t>Ebel-El-Saki</t>
         </is>
       </c>
-      <c r="B1006" t="inlineStr"/>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>ابل السقي</t>
+        </is>
+      </c>
       <c r="C1006" t="inlineStr">
         <is>
           <t>Marjaayoun</t>
@@ -62596,7 +63792,11 @@
           <t>Kantara</t>
         </is>
       </c>
-      <c r="B1014" t="inlineStr"/>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>قنطره</t>
+        </is>
+      </c>
       <c r="C1014" t="inlineStr">
         <is>
           <t>Marjaayoun</t>
@@ -62734,7 +63934,11 @@
           <t>Meis El-Jabal</t>
         </is>
       </c>
-      <c r="B1020" t="inlineStr"/>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>ميس الجبل جنوبي</t>
+        </is>
+      </c>
       <c r="C1020" t="inlineStr">
         <is>
           <t>Marjaayoun</t>
@@ -63118,7 +64322,11 @@
           <t>Braikeh</t>
         </is>
       </c>
-      <c r="B1036" t="inlineStr"/>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>بريقع</t>
+        </is>
+      </c>
       <c r="C1036" t="inlineStr">
         <is>
           <t>Nabatiyeh</t>
@@ -63837,7 +65045,11 @@
           <t>Mazraet Sinai</t>
         </is>
       </c>
-      <c r="B1067" t="inlineStr"/>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>سيني</t>
+        </is>
+      </c>
       <c r="C1067" t="inlineStr">
         <is>
           <t>Nabatiyeh</t>
@@ -64062,7 +65274,11 @@
           <t>Zaoutar El-Charkiyé</t>
         </is>
       </c>
-      <c r="B1076" t="inlineStr"/>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>زوطر الشرقية</t>
+        </is>
+      </c>
       <c r="C1076" t="inlineStr">
         <is>
           <t>Nabatiyeh</t>
@@ -64208,7 +65424,11 @@
           <t>Al-Boukaïa et Dahr Abi Yaghi</t>
         </is>
       </c>
-      <c r="B1082" t="inlineStr"/>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>ضهر ابو ياغي</t>
+        </is>
+      </c>
       <c r="C1082" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -64375,7 +65595,11 @@
           <t>Bechtoudar-Aoura</t>
         </is>
       </c>
-      <c r="B1089" t="inlineStr"/>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>بشتودار</t>
+        </is>
+      </c>
       <c r="C1089" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -64826,7 +66050,11 @@
           <t>El-Ftahat</t>
         </is>
       </c>
-      <c r="B1108" t="inlineStr"/>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>الفتاحات وحربونا</t>
+        </is>
+      </c>
       <c r="C1108" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65331,7 +66559,11 @@
           <t>Masreh</t>
         </is>
       </c>
-      <c r="B1129" t="inlineStr"/>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>مسرح والبقيعة</t>
+        </is>
+      </c>
       <c r="C1129" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65402,7 +66634,11 @@
           <t>Mrah Chdid</t>
         </is>
       </c>
-      <c r="B1132" t="inlineStr"/>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>مراح شديد ودير شواح</t>
+        </is>
+      </c>
       <c r="C1132" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65548,7 +66784,11 @@
           <t>Rachkida</t>
         </is>
       </c>
-      <c r="B1138" t="inlineStr"/>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>راشكيده</t>
+        </is>
+      </c>
       <c r="C1138" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65644,7 +66884,11 @@
           <t>Sghar et Wata Sfarta</t>
         </is>
       </c>
-      <c r="B1142" t="inlineStr"/>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>صغار</t>
+        </is>
+      </c>
       <c r="C1142" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65690,7 +66934,11 @@
           <t>Sourate</t>
         </is>
       </c>
-      <c r="B1144" t="inlineStr"/>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>صورات</t>
+        </is>
+      </c>
       <c r="C1144" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65736,7 +66984,11 @@
           <t>Tannourine Foka</t>
         </is>
       </c>
-      <c r="B1146" t="inlineStr"/>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>تنورين الفوقا</t>
+        </is>
+      </c>
       <c r="C1146" t="inlineStr">
         <is>
           <t>Batroun</t>
@@ -65932,7 +67184,11 @@
           <t>Bazoune</t>
         </is>
       </c>
-      <c r="B1154" t="inlineStr"/>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>بزعون</t>
+        </is>
+      </c>
       <c r="C1154" t="inlineStr">
         <is>
           <t>Bcharre</t>
@@ -65953,7 +67209,11 @@
           <t>Bcharré</t>
         </is>
       </c>
-      <c r="B1155" t="inlineStr"/>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>بشري حي السيدة</t>
+        </is>
+      </c>
       <c r="C1155" t="inlineStr">
         <is>
           <t>Bcharre</t>
@@ -66024,7 +67284,11 @@
           <t>Bikaa kafra</t>
         </is>
       </c>
-      <c r="B1158" t="inlineStr"/>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>بقاعكفرا</t>
+        </is>
+      </c>
       <c r="C1158" t="inlineStr">
         <is>
           <t>Bcharre</t>
@@ -67877,7 +69141,11 @@
           <t>Borge-El-Yahoudié</t>
         </is>
       </c>
-      <c r="B1235" t="inlineStr"/>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>برج اليهودية</t>
+        </is>
+      </c>
       <c r="C1235" t="inlineStr">
         <is>
           <t>Minieh-Danieh</t>
@@ -68525,7 +69793,11 @@
           <t>Nabi Youcheaa</t>
         </is>
       </c>
-      <c r="B1263" t="inlineStr"/>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>النبي يوشع</t>
+        </is>
+      </c>
       <c r="C1263" t="inlineStr">
         <is>
           <t>Minieh-Danieh</t>
@@ -68877,7 +70149,11 @@
           <t>Tripoli Al-Hadid</t>
         </is>
       </c>
-      <c r="B1279" t="inlineStr"/>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>الحديد</t>
+        </is>
+      </c>
       <c r="C1279" t="inlineStr">
         <is>
           <t>Tripoli</t>
@@ -68940,7 +70216,11 @@
           <t>Tripoli Al-Nouri</t>
         </is>
       </c>
-      <c r="B1282" t="inlineStr"/>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>النوري</t>
+        </is>
+      </c>
       <c r="C1282" t="inlineStr">
         <is>
           <t>Tripoli</t>
@@ -69066,7 +70346,11 @@
           <t>Tripoli Al Haddadin</t>
         </is>
       </c>
-      <c r="B1288" t="inlineStr"/>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>الحدادين</t>
+        </is>
+      </c>
       <c r="C1288" t="inlineStr">
         <is>
           <t>Tripoli</t>
@@ -69430,7 +70714,11 @@
           <t>Basloukite</t>
         </is>
       </c>
-      <c r="B1304" t="inlineStr"/>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>بسلوقيط</t>
+        </is>
+      </c>
       <c r="C1304" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -69476,7 +70764,11 @@
           <t>Benachée</t>
         </is>
       </c>
-      <c r="B1306" t="inlineStr"/>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>بنشعي</t>
+        </is>
+      </c>
       <c r="C1306" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -69522,7 +70814,11 @@
           <t>Bouhairet Toula</t>
         </is>
       </c>
-      <c r="B1308" t="inlineStr"/>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>البحيرة</t>
+        </is>
+      </c>
       <c r="C1308" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -69702,7 +70998,11 @@
           <t>Iâl</t>
         </is>
       </c>
-      <c r="B1316" t="inlineStr"/>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>ايعال</t>
+        </is>
+      </c>
       <c r="C1316" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -69794,7 +71094,11 @@
           <t>Kfar Chakna</t>
         </is>
       </c>
-      <c r="B1320" t="inlineStr"/>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>كفر شخنا</t>
+        </is>
+      </c>
       <c r="C1320" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -69865,7 +71169,11 @@
           <t>Kfar hata</t>
         </is>
       </c>
-      <c r="B1323" t="inlineStr"/>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>كفرحاتا</t>
+        </is>
+      </c>
       <c r="C1323" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -70053,7 +71361,11 @@
           <t>Mazraet Hreikess</t>
         </is>
       </c>
-      <c r="B1331" t="inlineStr"/>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>حريقص</t>
+        </is>
+      </c>
       <c r="C1331" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -70120,7 +71432,11 @@
           <t>Mériata</t>
         </is>
       </c>
-      <c r="B1334" t="inlineStr"/>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>مرياطه</t>
+        </is>
+      </c>
       <c r="C1334" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -70187,7 +71503,11 @@
           <t>Rachehine</t>
         </is>
       </c>
-      <c r="B1337" t="inlineStr"/>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>رشعين</t>
+        </is>
+      </c>
       <c r="C1337" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -70329,7 +71649,11 @@
           <t>Zghorta</t>
         </is>
       </c>
-      <c r="B1343" t="inlineStr"/>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>زغرتا حي السيدة الشرقي</t>
+        </is>
+      </c>
       <c r="C1343" t="inlineStr">
         <is>
           <t>Zgharta</t>
@@ -70350,7 +71674,11 @@
           <t>Aïchiyé</t>
         </is>
       </c>
-      <c r="B1344" t="inlineStr"/>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>العيشية</t>
+        </is>
+      </c>
       <c r="C1344" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -70467,7 +71795,11 @@
           <t>Ariya</t>
         </is>
       </c>
-      <c r="B1349" t="inlineStr"/>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>صفارية</t>
+        </is>
+      </c>
       <c r="C1349" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71198,7 +72530,11 @@
           <t>Haitoulé</t>
         </is>
       </c>
-      <c r="B1380" t="inlineStr"/>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>حيتوله - وادي الليمون</t>
+        </is>
+      </c>
       <c r="C1380" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71219,7 +72555,11 @@
           <t>Haïtoura</t>
         </is>
       </c>
-      <c r="B1381" t="inlineStr"/>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>حيطوره</t>
+        </is>
+      </c>
       <c r="C1381" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71240,7 +72580,11 @@
           <t>Hassaniyé</t>
         </is>
       </c>
-      <c r="B1382" t="inlineStr"/>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>الحسانيه</t>
+        </is>
+      </c>
       <c r="C1382" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71332,7 +72676,11 @@
           <t>Kafr-Jarra</t>
         </is>
       </c>
-      <c r="B1386" t="inlineStr"/>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>كفر جره</t>
+        </is>
+      </c>
       <c r="C1386" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71403,7 +72751,11 @@
           <t>Katrani</t>
         </is>
       </c>
-      <c r="B1389" t="inlineStr"/>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>القطراني</t>
+        </is>
+      </c>
       <c r="C1389" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71424,7 +72776,11 @@
           <t>Kattine</t>
         </is>
       </c>
-      <c r="B1390" t="inlineStr"/>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>قطين وحيداب</t>
+        </is>
+      </c>
       <c r="C1390" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -71771,7 +73127,11 @@
           <t>Rimate</t>
         </is>
       </c>
-      <c r="B1405" t="inlineStr"/>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>ريمات وشقاديف</t>
+        </is>
+      </c>
       <c r="C1405" t="inlineStr">
         <is>
           <t>Jezzine</t>
@@ -73986,7 +75346,11 @@
           <t>Aïn Abou Abdallah</t>
         </is>
       </c>
-      <c r="B1498" t="inlineStr"/>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>عين ابو عبدالله</t>
+        </is>
+      </c>
       <c r="C1498" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -74178,7 +75542,11 @@
           <t>Beiriche</t>
         </is>
       </c>
-      <c r="B1506" t="inlineStr"/>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>باريش</t>
+        </is>
+      </c>
       <c r="C1506" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -74387,7 +75755,11 @@
           <t>Cheïetiyé</t>
         </is>
       </c>
-      <c r="B1515" t="inlineStr"/>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>الشعيتية</t>
+        </is>
+      </c>
       <c r="C1515" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -74650,7 +76022,11 @@
           <t>El-Kleilé</t>
         </is>
       </c>
-      <c r="B1526" t="inlineStr"/>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>قليله</t>
+        </is>
+      </c>
       <c r="C1526" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -74763,7 +76139,11 @@
           <t>Hanawé</t>
         </is>
       </c>
-      <c r="B1531" t="inlineStr"/>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>حناويه</t>
+        </is>
+      </c>
       <c r="C1531" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -75026,7 +76406,11 @@
           <t>Mahroub</t>
         </is>
       </c>
-      <c r="B1542" t="inlineStr"/>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>معروب</t>
+        </is>
+      </c>
       <c r="C1542" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -75237,7 +76621,11 @@
           <t>Neffahiyé</t>
         </is>
       </c>
-      <c r="B1551" t="inlineStr"/>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>نفاخيه</t>
+        </is>
+      </c>
       <c r="C1551" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -75283,7 +76671,11 @@
           <t>Ouadi Djilou</t>
         </is>
       </c>
-      <c r="B1553" t="inlineStr"/>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>وادي جيلو</t>
+        </is>
+      </c>
       <c r="C1553" t="inlineStr">
         <is>
           <t>Sour</t>
@@ -75542,7 +76934,11 @@
           <t>Touaire</t>
         </is>
       </c>
-      <c r="B1564" t="inlineStr"/>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>طير فلسيه</t>
+        </is>
+      </c>
       <c r="C1564" t="inlineStr">
         <is>
           <t>Sour</t>
